--- a/state_results/Contact_Recreation/FoxtonLoopatHarbourStBoatRamp_54f0e65440.xlsx
+++ b/state_results/Contact_Recreation/FoxtonLoopatHarbourStBoatRamp_54f0e65440.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
   <si>
     <t>site name</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
+    <t>2021 - 2025</t>
   </si>
   <si>
     <t>% exceedances over 260/100 mL</t>
@@ -473,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,7 +597,7 @@
         <v>2979.6</v>
       </c>
       <c r="V2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -638,7 +644,7 @@
         <v>2979.6</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -685,7 +691,7 @@
         <v>2979.6</v>
       </c>
       <c r="V4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -732,7 +738,7 @@
         <v>2979.6</v>
       </c>
       <c r="V5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -779,7 +785,477 @@
         <v>2979.6</v>
       </c>
       <c r="V6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>368.5</v>
+      </c>
+      <c r="G7">
+        <v>998.355263157895</v>
+      </c>
+      <c r="H7">
+        <v>13000</v>
+      </c>
+      <c r="I7">
+        <v>5436</v>
+      </c>
+      <c r="J7">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="K7">
+        <v>59.2105263157895</v>
+      </c>
+      <c r="L7">
+        <v>368.5</v>
+      </c>
+      <c r="M7">
+        <v>804.6</v>
+      </c>
+      <c r="N7">
+        <v>911</v>
+      </c>
+      <c r="O7">
+        <v>2979.6</v>
+      </c>
+      <c r="V7" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>368.5</v>
+      </c>
+      <c r="G8">
+        <v>998.355263157895</v>
+      </c>
+      <c r="H8">
+        <v>13000</v>
+      </c>
+      <c r="I8">
+        <v>5436</v>
+      </c>
+      <c r="J8">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="K8">
+        <v>59.2105263157895</v>
+      </c>
+      <c r="L8">
+        <v>368.5</v>
+      </c>
+      <c r="M8">
+        <v>804.6</v>
+      </c>
+      <c r="N8">
+        <v>911</v>
+      </c>
+      <c r="O8">
+        <v>2979.6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>368.5</v>
+      </c>
+      <c r="G9">
+        <v>998.355263157895</v>
+      </c>
+      <c r="H9">
+        <v>13000</v>
+      </c>
+      <c r="I9">
+        <v>5436</v>
+      </c>
+      <c r="J9">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="K9">
+        <v>59.2105263157895</v>
+      </c>
+      <c r="L9">
+        <v>368.5</v>
+      </c>
+      <c r="M9">
+        <v>804.6</v>
+      </c>
+      <c r="N9">
+        <v>911</v>
+      </c>
+      <c r="O9">
+        <v>2979.6</v>
+      </c>
+      <c r="V9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>368.5</v>
+      </c>
+      <c r="G10">
+        <v>998.355263157895</v>
+      </c>
+      <c r="H10">
+        <v>13000</v>
+      </c>
+      <c r="I10">
+        <v>5436</v>
+      </c>
+      <c r="J10">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="K10">
+        <v>59.2105263157895</v>
+      </c>
+      <c r="L10">
+        <v>368.5</v>
+      </c>
+      <c r="M10">
+        <v>804.6</v>
+      </c>
+      <c r="N10">
+        <v>911</v>
+      </c>
+      <c r="O10">
+        <v>2979.6</v>
+      </c>
+      <c r="V10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>368.5</v>
+      </c>
+      <c r="G11">
+        <v>998.355263157895</v>
+      </c>
+      <c r="H11">
+        <v>13000</v>
+      </c>
+      <c r="I11">
+        <v>5436</v>
+      </c>
+      <c r="J11">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="K11">
+        <v>59.2105263157895</v>
+      </c>
+      <c r="L11">
+        <v>368.5</v>
+      </c>
+      <c r="M11">
+        <v>804.6</v>
+      </c>
+      <c r="N11">
+        <v>911</v>
+      </c>
+      <c r="O11">
+        <v>2979.6</v>
+      </c>
+      <c r="V11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>295</v>
+      </c>
+      <c r="G12">
+        <v>833.817821782178</v>
+      </c>
+      <c r="H12">
+        <v>13000</v>
+      </c>
+      <c r="I12">
+        <v>3994</v>
+      </c>
+      <c r="J12">
+        <v>33.6633663366337</v>
+      </c>
+      <c r="K12">
+        <v>55.4455445544554</v>
+      </c>
+      <c r="L12">
+        <v>288</v>
+      </c>
+      <c r="M12">
+        <v>703</v>
+      </c>
+      <c r="N12">
+        <v>751.42</v>
+      </c>
+      <c r="O12">
+        <v>2238.72</v>
+      </c>
+      <c r="V12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>295</v>
+      </c>
+      <c r="G13">
+        <v>833.817821782178</v>
+      </c>
+      <c r="H13">
+        <v>13000</v>
+      </c>
+      <c r="I13">
+        <v>3994</v>
+      </c>
+      <c r="J13">
+        <v>33.6633663366337</v>
+      </c>
+      <c r="K13">
+        <v>55.4455445544554</v>
+      </c>
+      <c r="L13">
+        <v>288</v>
+      </c>
+      <c r="M13">
+        <v>703</v>
+      </c>
+      <c r="N13">
+        <v>751.42</v>
+      </c>
+      <c r="O13">
+        <v>2238.72</v>
+      </c>
+      <c r="V13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>295</v>
+      </c>
+      <c r="G14">
+        <v>833.817821782178</v>
+      </c>
+      <c r="H14">
+        <v>13000</v>
+      </c>
+      <c r="I14">
+        <v>3994</v>
+      </c>
+      <c r="J14">
+        <v>33.6633663366337</v>
+      </c>
+      <c r="K14">
+        <v>55.4455445544554</v>
+      </c>
+      <c r="L14">
+        <v>288</v>
+      </c>
+      <c r="M14">
+        <v>703</v>
+      </c>
+      <c r="N14">
+        <v>751.42</v>
+      </c>
+      <c r="O14">
+        <v>2238.72</v>
+      </c>
+      <c r="V14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>295</v>
+      </c>
+      <c r="G15">
+        <v>833.817821782178</v>
+      </c>
+      <c r="H15">
+        <v>13000</v>
+      </c>
+      <c r="I15">
+        <v>3994</v>
+      </c>
+      <c r="J15">
+        <v>33.6633663366337</v>
+      </c>
+      <c r="K15">
+        <v>55.4455445544554</v>
+      </c>
+      <c r="L15">
+        <v>288</v>
+      </c>
+      <c r="M15">
+        <v>703</v>
+      </c>
+      <c r="N15">
+        <v>751.42</v>
+      </c>
+      <c r="O15">
+        <v>2238.72</v>
+      </c>
+      <c r="V15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>295</v>
+      </c>
+      <c r="G16">
+        <v>833.817821782178</v>
+      </c>
+      <c r="H16">
+        <v>13000</v>
+      </c>
+      <c r="I16">
+        <v>3994</v>
+      </c>
+      <c r="J16">
+        <v>33.6633663366337</v>
+      </c>
+      <c r="K16">
+        <v>55.4455445544554</v>
+      </c>
+      <c r="L16">
+        <v>288</v>
+      </c>
+      <c r="M16">
+        <v>703</v>
+      </c>
+      <c r="N16">
+        <v>751.42</v>
+      </c>
+      <c r="O16">
+        <v>2238.72</v>
+      </c>
+      <c r="V16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
